--- a/20231018_大手企業の貧弱な開発環境/33_TIOBE2023.xlsx
+++ b/20231018_大手企業の貧弱な開発環境/33_TIOBE2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231018_大手企業の貧弱な開発環境\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0194C4-9932-4D06-BD82-2EFC8D2EF8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD22A2C-6A3E-4E9A-9BF6-1B7DCC6C47A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A13CE487-B3C6-4B37-9F25-44DA106E3DDB}"/>
   </bookViews>
@@ -487,9 +487,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:f>Sheet1!$C$5:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -519,16 +519,136 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>アセンブラ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Scratch</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Delphi/Object Pascal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MATLAB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Fortran</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kotlin</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Classic Visual Basic</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SAS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ada</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>COBOL</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Prolog</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Lua</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Perl</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(Visual) FoxPro</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Dart</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Objective-C</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Transact-SQL</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Lisp</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>F#</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>GAMS</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>VBScript</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>PL/SQL</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Bash</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CFML</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>PowerShell</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Solidity</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Scheme</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>ABAP</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>X++</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>TypeScript</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Awk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:f>Sheet1!$D$5:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.1482</c:v>
                 </c:pt>
@@ -558,6 +678,126 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,14 +1524,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1641,8 +1881,8 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1692,7 +1932,7 @@
         <v>0.1482</v>
       </c>
       <c r="F5" s="7">
-        <f>100*D5/E5</f>
+        <f t="shared" ref="F5:F24" si="0">100*D5/E5</f>
         <v>100</v>
       </c>
     </row>
@@ -1710,7 +1950,7 @@
         <v>0.1482</v>
       </c>
       <c r="F6" s="7">
-        <f>100*D6/E6</f>
+        <f t="shared" si="0"/>
         <v>81.511470985155199</v>
       </c>
     </row>
@@ -1728,7 +1968,7 @@
         <v>0.1482</v>
       </c>
       <c r="F7" s="7">
-        <f>100*D7/E7</f>
+        <f t="shared" si="0"/>
         <v>71.997300944669362</v>
       </c>
     </row>
@@ -1746,7 +1986,7 @@
         <v>0.1482</v>
       </c>
       <c r="F8" s="7">
-        <f>100*D8/E8</f>
+        <f t="shared" si="0"/>
         <v>60.1889338731444</v>
       </c>
     </row>
@@ -1764,7 +2004,7 @@
         <v>0.1482</v>
       </c>
       <c r="F9" s="7">
-        <f>100*D9/E9</f>
+        <f t="shared" si="0"/>
         <v>52.02429149797571</v>
       </c>
     </row>
@@ -1782,7 +2022,7 @@
         <v>0.1482</v>
       </c>
       <c r="F10" s="7">
-        <f>100*D10/E10</f>
+        <f t="shared" si="0"/>
         <v>19.635627530364374</v>
       </c>
     </row>
@@ -1800,7 +2040,7 @@
         <v>0.1482</v>
       </c>
       <c r="F11" s="7">
-        <f>100*D11/E11</f>
+        <f t="shared" si="0"/>
         <v>14.37246963562753</v>
       </c>
     </row>
@@ -1818,7 +2058,7 @@
         <v>0.1482</v>
       </c>
       <c r="F12" s="7">
-        <f>100*D12/E12</f>
+        <f t="shared" si="0"/>
         <v>12.820512820512819</v>
       </c>
     </row>
@@ -1836,7 +2076,7 @@
         <v>0.1482</v>
       </c>
       <c r="F13" s="7">
-        <f>100*D13/E13</f>
+        <f t="shared" si="0"/>
         <v>12.010796221322538</v>
       </c>
     </row>
@@ -1854,7 +2094,7 @@
         <v>0.1482</v>
       </c>
       <c r="F14" s="7">
-        <f>100*D14/E14</f>
+        <f t="shared" si="0"/>
         <v>11.06612685560054</v>
       </c>
     </row>
@@ -1872,7 +2112,7 @@
         <v>0.1482</v>
       </c>
       <c r="F15" s="7">
-        <f>100*D15/E15</f>
+        <f t="shared" si="0"/>
         <v>9.2442645074224021</v>
       </c>
     </row>
@@ -1890,7 +2130,7 @@
         <v>0.1482</v>
       </c>
       <c r="F16" s="7">
-        <f>100*D16/E16</f>
+        <f t="shared" si="0"/>
         <v>9.2442645074224021</v>
       </c>
     </row>
@@ -1908,7 +2148,7 @@
         <v>0.1482</v>
       </c>
       <c r="F17" s="7">
-        <f>100*D17/E17</f>
+        <f t="shared" si="0"/>
         <v>8.7719298245614041</v>
       </c>
     </row>
@@ -1926,7 +2166,7 @@
         <v>0.1482</v>
       </c>
       <c r="F18" s="7">
-        <f>100*D18/E18</f>
+        <f t="shared" si="0"/>
         <v>8.569500674763832</v>
       </c>
     </row>
@@ -1944,7 +2184,7 @@
         <v>0.1482</v>
       </c>
       <c r="F19" s="7">
-        <f>100*D19/E19</f>
+        <f t="shared" si="0"/>
         <v>7.2199730094466927</v>
       </c>
     </row>
@@ -1962,7 +2202,7 @@
         <v>0.1482</v>
       </c>
       <c r="F20" s="7">
-        <f>100*D20/E20</f>
+        <f t="shared" si="0"/>
         <v>6.8825910931174095</v>
       </c>
     </row>
@@ -1980,7 +2220,7 @@
         <v>0.1482</v>
       </c>
       <c r="F21" s="7">
-        <f>100*D21/E21</f>
+        <f t="shared" si="0"/>
         <v>6.4777327935222671</v>
       </c>
     </row>
@@ -1998,7 +2238,7 @@
         <v>0.1482</v>
       </c>
       <c r="F22" s="7">
-        <f>100*D22/E22</f>
+        <f t="shared" si="0"/>
         <v>6.4777327935222671</v>
       </c>
     </row>
@@ -2016,7 +2256,7 @@
         <v>0.1482</v>
       </c>
       <c r="F23" s="7">
-        <f>100*D23/E23</f>
+        <f t="shared" si="0"/>
         <v>6.2078272604588394</v>
       </c>
     </row>
@@ -2034,7 +2274,7 @@
         <v>0.1482</v>
       </c>
       <c r="F24" s="7">
-        <f>100*D24/E24</f>
+        <f t="shared" si="0"/>
         <v>6.1403508771929829</v>
       </c>
     </row>
